--- a/StructureDefinition-ext-R5-Group.member.xlsx
+++ b/StructureDefinition-ext-R5-Group.member.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +404,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|0.0.1-snapshot-3|Specimen|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|Specimen)
 </t>
   </si>
   <si>
